--- a/biology/Botanique/Firmiana_major/Firmiana_major.xlsx
+++ b/biology/Botanique/Firmiana_major/Firmiana_major.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Firmiana est une espèce d'arbres de la famille des Malvaceae (ou des Sterculiaceae selon la classification classique) originaire de Chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sterculia platanifolia var. major W.W. Sm.
 Hildegardia major (W.W. Sm.) Kosterm.</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre atteignant 15 m de haut.
 </t>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre est originaire de l'ouest du Yunnan, à une altitude comprise entre 1700 et 2 500 m. Il a disparu à l'état sauvage du fait de la déforestation pour la plantation de cultures, il subsiste comme arbre ornemental dans certains villages[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est originaire de l'ouest du Yunnan, à une altitude comprise entre 1700 et 2 500 m. Il a disparu à l'état sauvage du fait de la déforestation pour la plantation de cultures, il subsiste comme arbre ornemental dans certains villages.
 </t>
         </is>
       </c>
